--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="20">
   <si>
     <t>Profile</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Method</t>
   </si>
   <si>
-    <t>FlightItinerary1</t>
+    <t>FlightItinerary</t>
   </si>
   <si>
     <t>null#TRNS</t>
@@ -68,7 +68,7 @@
     <t>optional</t>
   </si>
   <si>
-    <t>FlightItinerary2</t>
+    <t>stringĵ</t>
   </si>
   <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, integerĵ, timeĵ, dateTimeĵ, Periodĵ</t>
@@ -205,7 +205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -283,28 +283,28 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>16</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>17</v>
@@ -321,7 +321,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>13</v>
@@ -356,7 +356,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>13</v>
@@ -391,25 +391,25 @@
         <v>13</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s" s="2">
         <v>18</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>19</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>17</v>
@@ -426,7 +426,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>13</v>
@@ -453,41 +453,6 @@
         <v>13</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s" s="2">
         <v>13</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>Profile</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>optional</t>
-  </si>
-  <si>
-    <t>stringĵ</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, integerĵ, timeĵ, dateTimeĵ, Periodĵ</t>
   </si>
 </sst>
 </file>
@@ -205,7 +199,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -281,181 +275,6 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K4" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
